--- a/Wykresy/Wykres1.xlsx
+++ b/Wykresy/Wykres1.xlsx
@@ -190,7 +190,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3342,11 +3342,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="23217392"/>
-        <c:axId val="59561656"/>
+        <c:axId val="69440840"/>
+        <c:axId val="51167292"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23217392"/>
+        <c:axId val="69440840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,7 +3374,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59561656"/>
+        <c:crossAx val="51167292"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3382,7 +3382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59561656"/>
+        <c:axId val="51167292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,7 +3419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23217392"/>
+        <c:crossAx val="69440840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3467,7 +3467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6567,11 +6567,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92049230"/>
-        <c:axId val="50603848"/>
+        <c:axId val="35220712"/>
+        <c:axId val="59578319"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92049230"/>
+        <c:axId val="35220712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,12 +6627,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50603848"/>
+        <c:crossAx val="59578319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50603848"/>
+        <c:axId val="59578319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,7 +6705,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92049230"/>
+        <c:crossAx val="35220712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6744,8 +6744,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6754,7 +6754,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3251520" y="333360"/>
-        <a:ext cx="5758920" cy="3241440"/>
+        <a:ext cx="5758920" cy="1320840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6767,15 +6767,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>793080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>773280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6783,7 +6783,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3231360" y="4073760"/>
+        <a:off x="3211560" y="1951200"/>
         <a:ext cx="5758920" cy="4216680"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6805,7 +6805,7 @@
   <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
